--- a/Document/モバイル受付画面機能一覧.xlsx
+++ b/Document/モバイル受付画面機能一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desk\土活\20190720\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w4abe\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC93689C-204D-4226-BCA5-3D34D34523E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DC93689C-204D-4226-BCA5-3D34D34523E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A4248612-C426-41DD-A51C-DA5D4AF18868}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2672,16 +2672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>603053</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>114829</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>420781</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>22028</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>48154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2704,8 +2704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12102353" y="8292352"/>
-          <a:ext cx="3908788" cy="2412036"/>
+          <a:off x="18099181" y="5332878"/>
+          <a:ext cx="3868447" cy="2325751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2899,16 +2899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>126332</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>130735</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>18676</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>435307</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>61467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>424022</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>115638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2922,9 +2922,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22930303" y="7507941"/>
-          <a:ext cx="620726" cy="1755588"/>
+        <a:xfrm rot="1195491">
+          <a:off x="19799072" y="6493643"/>
+          <a:ext cx="593832" cy="11035936"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3082,88 +3082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>570825</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>285528</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>11128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>79917</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>138157</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="矢印: 下 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D86C253-6567-4075-881E-29558EAE159F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="4319283">
-          <a:off x="18807592" y="4074067"/>
-          <a:ext cx="631293" cy="6288651"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>470713</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>34033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>72732</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>161081</xdr:rowOff>
+      <xdr:rowOff>116876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>497147</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3177,9 +3105,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19871103">
-          <a:off x="15262478" y="10119327"/>
-          <a:ext cx="834666" cy="1976019"/>
+        <a:xfrm rot="1771486">
+          <a:off x="18573528" y="6755801"/>
+          <a:ext cx="821219" cy="5099644"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4004,16 +3932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>25466</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149081</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>243808</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>108042</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>288023</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>89633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>328620</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4027,9 +3955,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2582432">
-          <a:off x="11735613" y="9898199"/>
-          <a:ext cx="834666" cy="1976019"/>
+        <a:xfrm rot="3329443">
+          <a:off x="14219951" y="5426780"/>
+          <a:ext cx="827942" cy="7965397"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4315,16 +4243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>354854</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>130736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>573196</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>184686</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>403029</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>81591</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4338,9 +4266,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10832354" y="17107648"/>
-          <a:ext cx="834666" cy="1718234"/>
+        <a:xfrm rot="18952419">
+          <a:off x="13563648" y="15977983"/>
+          <a:ext cx="826477" cy="2479531"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -4494,6 +4422,619 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             <a:t>呼出しボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>417634</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>256443</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67902B90-0602-419E-9A0F-7D6D84429D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13188461" y="14375423"/>
+          <a:ext cx="2271347" cy="1611924"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -87371"/>
+            <a:gd name="adj2" fmla="val 41538"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・入力チェック機能追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・エラーは各項目の横に出す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全部必須入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・「決定」ボタン→「呼出し」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・呼出し先の紐づけ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当：伊藤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>359020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="吹き出し: 四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5175CA3-4101-4166-9B81-D5DCE717EFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25352620" y="4430591"/>
+          <a:ext cx="3355730" cy="1619251"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -87371"/>
+            <a:gd name="adj2" fmla="val 41538"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ボタン減らす</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　①「打合せ、セミナーなど」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　＋タブレット、書類選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　②「上記以外（配達、清掃など）」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当：増田</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699AA338-7C9B-4441-B992-49E38D64220B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15840075" y="400050"/>
+          <a:ext cx="3467100" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・緑のバー消す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・戻るボタン設置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当：伊藤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="吹き出し: 四角形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108FFBE5-7A44-44F2-B0FE-6F8D9D675489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25669875" y="609600"/>
+          <a:ext cx="4895850" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -74725"/>
+            <a:gd name="adj2" fmla="val 39773"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・メンテナンスボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　案①システムズ君をスワイプすると後ろにボタンが表示される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　案②システムズ君を画面外に３回出すとメンテナンス画面に遷移。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　案③システムズ君３回、受付ボタン３回でメンテナンス画面に遷移。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　など</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・メンテナンス画面作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当：川島</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5205,8 +5746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD42FF9-36F5-4978-9754-8FB49FFA900E}">
   <dimension ref="J116:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L61" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AI130" sqref="AI130"/>
+    <sheetView tabSelected="1" topLeftCell="Y4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ21" sqref="AQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Document/モバイル受付画面機能一覧.xlsx
+++ b/Document/モバイル受付画面機能一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w4abe\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DC93689C-204D-4226-BCA5-3D34D34523E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A4248612-C426-41DD-A51C-DA5D4AF18868}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{DF7DB134-BC4F-4052-9F80-4768CEE40D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D0AE04EA-536C-4411-8E18-8AC744D1AAFE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="構想案" sheetId="3" r:id="rId1"/>
     <sheet name="機能一覧" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -83,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,13 +92,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4669,23 +4759,58 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・ボタン減らす</a:t>
+            <a:t>・ボタン配置変更</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　①「打合せ、セミナーなど」</a:t>
+            <a:t>縦に並べる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　①「打合せ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>セミナー」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4717,7 +4842,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　②「上記以外（配達、清掃など）」</a:t>
+            <a:t>　②「上記以外」</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4814,7 +4939,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・緑のバー消す</a:t>
+            <a:t>・緑のバー消す（完了）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5035,6 +5160,127 @@
               </a:solidFill>
             </a:rPr>
             <a:t>担当：川島</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949B4445-6DC8-4230-BFF3-03746444792F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25700934" y="5955197"/>
+          <a:ext cx="3486978" cy="1126434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>課題</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・システムズ君の背景透過</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・「上記以外」ボタン電話につなげる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当：増田</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5746,8 +5992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD42FF9-36F5-4978-9754-8FB49FFA900E}">
   <dimension ref="J116:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5795,4 +6041,202 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433B6597-2996-4660-AE43-F9B9458678D4}">
+  <dimension ref="B3:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/モバイル受付画面機能一覧.xlsx
+++ b/Document/モバイル受付画面機能一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w4abe\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{DF7DB134-BC4F-4052-9F80-4768CEE40D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D0AE04EA-536C-4411-8E18-8AC744D1AAFE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{DF7DB134-BC4F-4052-9F80-4768CEE40D25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DE8E91CB-15B7-4823-967A-7EBC5F0B9CBC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5285,6 +5285,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>50130</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>576512</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729218AF-C805-4BC3-AB39-F974DE431BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28913387" y="2331118"/>
+          <a:ext cx="6667500" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5992,8 +6042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD42FF9-36F5-4978-9754-8FB49FFA900E}">
   <dimension ref="J116:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="76" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AT23" sqref="AT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Document/モバイル受付画面機能一覧.xlsx
+++ b/Document/モバイル受付画面機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w4abe\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{DF7DB134-BC4F-4052-9F80-4768CEE40D25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DE8E91CB-15B7-4823-967A-7EBC5F0B9CBC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="113_{232DD5EF-7597-4BD9-B5EF-A186C84D978E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{13E240A2-98DF-4685-9F17-D180FDFC7C7C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="15266" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構想案" sheetId="3" r:id="rId1"/>
@@ -4521,15 +4521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>417634</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>256443</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>29309</xdr:rowOff>
+      <xdr:colOff>252916</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>129571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>608740</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>129573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4544,8 +4544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13188461" y="14375423"/>
-          <a:ext cx="2271347" cy="1611924"/>
+          <a:off x="13938837" y="13994533"/>
+          <a:ext cx="3614377" cy="1575566"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4587,7 +4587,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・入力チェック機能追加</a:t>
+            <a:t>・入力チェック機能追加（修正中）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4660,7 +4660,23 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -4669,6 +4685,27 @@
             </a:rPr>
             <a:t>・呼出し先の紐づけ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（修正中）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4694,8 +4731,8 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>359020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
@@ -4716,8 +4753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25352620" y="4430591"/>
-          <a:ext cx="3355730" cy="1619251"/>
+          <a:off x="27079152" y="3552180"/>
+          <a:ext cx="3608393" cy="2336024"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4785,6 +4822,19 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（修正中）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4852,6 +4902,22 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　→　左右の位置調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4955,7 +5021,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・戻るボタン設置</a:t>
+            <a:t>・戻るボタン設置（修正中）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4965,6 +5031,14 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　→機能しないボタンあり</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4990,14 +5064,14 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14323</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5012,8 +5086,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25669875" y="609600"/>
-          <a:ext cx="4895850" cy="2028825"/>
+          <a:off x="27438517" y="272143"/>
+          <a:ext cx="5232734" cy="2893308"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -5055,7 +5129,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・メンテナンスボタン</a:t>
+            <a:t>・メンテナンスボタン（完了）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5103,7 +5177,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　案③システムズ君３回、受付ボタン３回でメンテナンス画面に遷移。</a:t>
+            <a:t>　決定→案③システムズ君</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5135,7 +5225,39 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・メンテナンス画面作成</a:t>
+            <a:t>・メンテナンス画面作成（修正中）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　→レイアウト修正中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　→登録し、アプリを再起動させると登録データが消える</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5176,8 +5298,8 @@
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>124240</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>107424</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5192,8 +5314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25700934" y="5955197"/>
-          <a:ext cx="3486978" cy="1126434"/>
+          <a:off x="27291631" y="5671845"/>
+          <a:ext cx="3719763" cy="1525617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5248,7 +5370,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・システムズ君の背景透過</a:t>
+            <a:t>・システムズ君の背景透過（完了）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -5264,8 +5386,32 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・「上記以外」ボタン電話につなげる</a:t>
+            <a:t>・「上記以外」ボタン電話につなげる（修正中）</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　→　違う画面につながっている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -5289,16 +5435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>50130</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50131</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>576512</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>128909</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>3580</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5327,8 +5473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28913387" y="2331118"/>
-          <a:ext cx="6667500" cy="5000625"/>
+          <a:off x="32714435" y="257819"/>
+          <a:ext cx="7043487" cy="4834118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6005,22 +6151,22 @@
       <selection activeCell="AR169" sqref="AR169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="116" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J116" s="1"/>
     </row>
-    <row r="125" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:12" x14ac:dyDescent="0.3">
       <c r="L125" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:12" x14ac:dyDescent="0.3">
       <c r="L126" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:12" x14ac:dyDescent="0.3">
       <c r="L127" s="1" t="s">
         <v>2</v>
       </c>
@@ -6042,25 +6188,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD42FF9-36F5-4978-9754-8FB49FFA900E}">
   <dimension ref="J116:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="76" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AT23" sqref="AT23"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="116" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:18" x14ac:dyDescent="0.3">
       <c r="R117" s="1"/>
     </row>
-    <row r="125" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:18" x14ac:dyDescent="0.3">
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:18" x14ac:dyDescent="0.3">
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:18" x14ac:dyDescent="0.3">
       <c r="L127" s="1"/>
     </row>
   </sheetData>
@@ -6084,7 +6230,7 @@
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6101,10 +6247,10 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6113,7 +6259,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -6122,7 +6268,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -6131,7 +6277,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -6140,7 +6286,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -6149,7 +6295,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -6158,7 +6304,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -6167,7 +6313,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -6176,7 +6322,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -6185,7 +6331,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -6194,7 +6340,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -6203,7 +6349,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -6212,7 +6358,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -6221,7 +6367,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -6230,7 +6376,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -6239,7 +6385,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -6248,7 +6394,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6257,7 +6403,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6266,7 +6412,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6275,7 +6421,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
